--- a/data/pca/factorExposure/factorExposure_2016-06-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009739791306798801</v>
+        <v>-0.01193421471250723</v>
       </c>
       <c r="C2">
-        <v>-0.05247623929819119</v>
+        <v>0.04017914544427961</v>
       </c>
       <c r="D2">
-        <v>-0.04159581432155256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06032783047890978</v>
+      </c>
+      <c r="E2">
+        <v>0.08062570979292369</v>
+      </c>
+      <c r="F2">
+        <v>-0.06042782767481678</v>
+      </c>
+      <c r="G2">
+        <v>-0.04396793895977834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03945813836725946</v>
+        <v>-0.02403880145904908</v>
       </c>
       <c r="C3">
-        <v>-0.1135510622991527</v>
+        <v>0.07161495630052782</v>
       </c>
       <c r="D3">
-        <v>-0.09184506973215248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07792487831479673</v>
+      </c>
+      <c r="E3">
+        <v>0.06587894954017698</v>
+      </c>
+      <c r="F3">
+        <v>0.02535326283388934</v>
+      </c>
+      <c r="G3">
+        <v>0.03547600813007187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05805008820372774</v>
+        <v>-0.05583818858291403</v>
       </c>
       <c r="C4">
-        <v>-0.06155808878505064</v>
+        <v>0.06457993224564285</v>
       </c>
       <c r="D4">
-        <v>-0.03377473085707866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05874841278611938</v>
+      </c>
+      <c r="E4">
+        <v>0.08021086459661234</v>
+      </c>
+      <c r="F4">
+        <v>-0.07404987309974626</v>
+      </c>
+      <c r="G4">
+        <v>0.03590906384642245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03839226590038472</v>
+        <v>-0.03449064517631362</v>
       </c>
       <c r="C6">
-        <v>-0.038626400534008</v>
+        <v>0.03009749467120217</v>
       </c>
       <c r="D6">
-        <v>-0.03044593156236755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06036164500276225</v>
+      </c>
+      <c r="E6">
+        <v>0.08183059854435591</v>
+      </c>
+      <c r="F6">
+        <v>-0.0492796006041863</v>
+      </c>
+      <c r="G6">
+        <v>0.02173549643142446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02016744492303888</v>
+        <v>-0.01718109984397939</v>
       </c>
       <c r="C7">
-        <v>-0.04541231277903895</v>
+        <v>0.03805374003702501</v>
       </c>
       <c r="D7">
-        <v>0.003433156972875394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03765897337776063</v>
+      </c>
+      <c r="E7">
+        <v>0.05779488457219987</v>
+      </c>
+      <c r="F7">
+        <v>-0.0937148500092221</v>
+      </c>
+      <c r="G7">
+        <v>0.009218772677697367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004193058037416583</v>
+        <v>-0.002532099821182441</v>
       </c>
       <c r="C8">
-        <v>-0.03420429076278256</v>
+        <v>0.03108406460127919</v>
       </c>
       <c r="D8">
-        <v>-0.02503526317974086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0329606655713903</v>
+      </c>
+      <c r="E8">
+        <v>0.05531298463658752</v>
+      </c>
+      <c r="F8">
+        <v>-0.03114977520591669</v>
+      </c>
+      <c r="G8">
+        <v>0.006313599051238585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03194716854851394</v>
+        <v>-0.03570989240046712</v>
       </c>
       <c r="C9">
-        <v>-0.04801844506163899</v>
+        <v>0.05131591798644643</v>
       </c>
       <c r="D9">
-        <v>-0.01803583678994571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04270379258904962</v>
+      </c>
+      <c r="E9">
+        <v>0.06843604180078793</v>
+      </c>
+      <c r="F9">
+        <v>-0.0798888585844563</v>
+      </c>
+      <c r="G9">
+        <v>0.02162225171491716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08330478778174907</v>
+        <v>-0.1037404213582334</v>
       </c>
       <c r="C10">
-        <v>0.1884279875896694</v>
+        <v>-0.1938168140773224</v>
       </c>
       <c r="D10">
-        <v>0.008936545558961855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009326376034845001</v>
+      </c>
+      <c r="E10">
+        <v>0.04413874960558986</v>
+      </c>
+      <c r="F10">
+        <v>-0.03319850066807083</v>
+      </c>
+      <c r="G10">
+        <v>0.0125438584804904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03899538260989832</v>
+        <v>-0.03501895625286512</v>
       </c>
       <c r="C11">
-        <v>-0.05364720595544698</v>
+        <v>0.0490476463354946</v>
       </c>
       <c r="D11">
-        <v>-0.01729069916384589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03406121755004196</v>
+      </c>
+      <c r="E11">
+        <v>0.02278679879115375</v>
+      </c>
+      <c r="F11">
+        <v>-0.06355948177126275</v>
+      </c>
+      <c r="G11">
+        <v>0.01685183140119546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04054588572663779</v>
+        <v>-0.03719363053972537</v>
       </c>
       <c r="C12">
-        <v>-0.04854630323623509</v>
+        <v>0.04622172315006567</v>
       </c>
       <c r="D12">
-        <v>-0.006414231817993461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02765137807818625</v>
+      </c>
+      <c r="E12">
+        <v>0.03115534466465393</v>
+      </c>
+      <c r="F12">
+        <v>-0.06402863582539869</v>
+      </c>
+      <c r="G12">
+        <v>0.01327730791734679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01126638372119481</v>
+        <v>-0.009997592573727681</v>
       </c>
       <c r="C13">
-        <v>-0.05172153100023742</v>
+        <v>0.04138807636880453</v>
       </c>
       <c r="D13">
-        <v>-0.01431701914421833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04985231621808718</v>
+      </c>
+      <c r="E13">
+        <v>0.09280490345528461</v>
+      </c>
+      <c r="F13">
+        <v>-0.08675177888835629</v>
+      </c>
+      <c r="G13">
+        <v>0.0193037241436865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006300500270083857</v>
+        <v>-0.003854042154953261</v>
       </c>
       <c r="C14">
-        <v>-0.04100895690884629</v>
+        <v>0.03333781580145967</v>
       </c>
       <c r="D14">
-        <v>0.009576718830135052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02490729547186562</v>
+      </c>
+      <c r="E14">
+        <v>0.04597555696142142</v>
+      </c>
+      <c r="F14">
+        <v>-0.08802551133025358</v>
+      </c>
+      <c r="G14">
+        <v>-0.004455261848413197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002878825950600465</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004870788884905561</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007111128855326269</v>
+      </c>
+      <c r="E15">
+        <v>0.00363250804455643</v>
+      </c>
+      <c r="F15">
+        <v>-0.005815801370870913</v>
+      </c>
+      <c r="G15">
+        <v>0.0001049717543053016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03589485503900434</v>
+        <v>-0.03320890829941759</v>
       </c>
       <c r="C16">
-        <v>-0.04831368344307022</v>
+        <v>0.04492613845280349</v>
       </c>
       <c r="D16">
-        <v>-0.01169093256551964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02787629022153316</v>
+      </c>
+      <c r="E16">
+        <v>0.03681747980339611</v>
+      </c>
+      <c r="F16">
+        <v>-0.06391203441094628</v>
+      </c>
+      <c r="G16">
+        <v>0.002055522416317172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01842778526021197</v>
+        <v>-0.01447369568808403</v>
       </c>
       <c r="C19">
-        <v>-0.06550642363179732</v>
+        <v>0.04772108324685648</v>
       </c>
       <c r="D19">
-        <v>-0.08340079424787725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08774425025392839</v>
+      </c>
+      <c r="E19">
+        <v>0.1046650986709309</v>
+      </c>
+      <c r="F19">
+        <v>-0.0616214937176715</v>
+      </c>
+      <c r="G19">
+        <v>-0.02777672535760611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01406451711521374</v>
+        <v>-0.01182962474344395</v>
       </c>
       <c r="C20">
-        <v>-0.04759843818171515</v>
+        <v>0.03876873817732009</v>
       </c>
       <c r="D20">
-        <v>-0.0126516910207645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03538232412742523</v>
+      </c>
+      <c r="E20">
+        <v>0.0742335437323338</v>
+      </c>
+      <c r="F20">
+        <v>-0.0686872096070133</v>
+      </c>
+      <c r="G20">
+        <v>0.006016293516309574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008303981131145962</v>
+        <v>-0.00790245524502199</v>
       </c>
       <c r="C21">
-        <v>-0.04967891114488259</v>
+        <v>0.04206691254554202</v>
       </c>
       <c r="D21">
-        <v>-0.03705223268554259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06357394588277777</v>
+      </c>
+      <c r="E21">
+        <v>0.1153194021059479</v>
+      </c>
+      <c r="F21">
+        <v>-0.1079046947246228</v>
+      </c>
+      <c r="G21">
+        <v>0.005768610538310998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0009108362856424001</v>
+        <v>-0.002477084096382684</v>
       </c>
       <c r="C22">
-        <v>-0.0005029469047873623</v>
+        <v>0.02492601443196497</v>
       </c>
       <c r="D22">
-        <v>-0.001466287064141371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04214915215437123</v>
+      </c>
+      <c r="E22">
+        <v>0.03717200937318513</v>
+      </c>
+      <c r="F22">
+        <v>-0.009438085409305724</v>
+      </c>
+      <c r="G22">
+        <v>0.037485301260111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0009164299491873836</v>
+        <v>-0.002548552077018499</v>
       </c>
       <c r="C23">
-        <v>-0.0005029043621483611</v>
+        <v>0.02508241029541254</v>
       </c>
       <c r="D23">
-        <v>-0.001473515361015456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04181106554936861</v>
+      </c>
+      <c r="E23">
+        <v>0.03744147257289904</v>
+      </c>
+      <c r="F23">
+        <v>-0.009215197670787699</v>
+      </c>
+      <c r="G23">
+        <v>0.03768831854363099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03228992181054378</v>
+        <v>-0.03283738056867143</v>
       </c>
       <c r="C24">
-        <v>-0.05042339297618516</v>
+        <v>0.05274901013589331</v>
       </c>
       <c r="D24">
-        <v>-0.01211812036558129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02808441437392938</v>
+      </c>
+      <c r="E24">
+        <v>0.03804523390464713</v>
+      </c>
+      <c r="F24">
+        <v>-0.07043964051662124</v>
+      </c>
+      <c r="G24">
+        <v>0.009506205864612753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04589316094017373</v>
+        <v>-0.04261086568449524</v>
       </c>
       <c r="C25">
-        <v>-0.06299668935153435</v>
+        <v>0.05738306279813364</v>
       </c>
       <c r="D25">
-        <v>-0.003924077015282829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02718600451907068</v>
+      </c>
+      <c r="E25">
+        <v>0.02973770847126075</v>
+      </c>
+      <c r="F25">
+        <v>-0.07359992940166299</v>
+      </c>
+      <c r="G25">
+        <v>0.02726365037874665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01443349274963259</v>
+        <v>-0.01411534147022119</v>
       </c>
       <c r="C26">
-        <v>-0.01910518594529014</v>
+        <v>0.01772907061761805</v>
       </c>
       <c r="D26">
-        <v>9.268134929897209e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02385647917919369</v>
+      </c>
+      <c r="E26">
+        <v>0.04645379464664155</v>
+      </c>
+      <c r="F26">
+        <v>-0.06327852970223259</v>
+      </c>
+      <c r="G26">
+        <v>-0.01376320829395161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1004176182489196</v>
+        <v>-0.1401671131345315</v>
       </c>
       <c r="C28">
-        <v>0.2388311880749611</v>
+        <v>-0.246878127236777</v>
       </c>
       <c r="D28">
-        <v>0.01335472404735456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02697232866725277</v>
+      </c>
+      <c r="E28">
+        <v>0.05971760003819215</v>
+      </c>
+      <c r="F28">
+        <v>-0.0531383807512224</v>
+      </c>
+      <c r="G28">
+        <v>0.02201369114502523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006770049606612628</v>
+        <v>-0.005325018334813784</v>
       </c>
       <c r="C29">
-        <v>-0.03300646243588558</v>
+        <v>0.02948964738596123</v>
       </c>
       <c r="D29">
-        <v>0.01396201233147823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01876995832217624</v>
+      </c>
+      <c r="E29">
+        <v>0.04613994685461111</v>
+      </c>
+      <c r="F29">
+        <v>-0.08204914252001562</v>
+      </c>
+      <c r="G29">
+        <v>0.009271116952446571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04228179341231465</v>
+        <v>-0.03873520257133518</v>
       </c>
       <c r="C30">
-        <v>-0.05538833210039068</v>
+        <v>0.0575648200460822</v>
       </c>
       <c r="D30">
-        <v>-0.07162910470213067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1004724548688072</v>
+      </c>
+      <c r="E30">
+        <v>0.06982001783195241</v>
+      </c>
+      <c r="F30">
+        <v>-0.07793877205425666</v>
+      </c>
+      <c r="G30">
+        <v>-0.01390057213996109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05461345641157387</v>
+        <v>-0.05533720472475787</v>
       </c>
       <c r="C31">
-        <v>-0.04602597907462725</v>
+        <v>0.06140710232123305</v>
       </c>
       <c r="D31">
-        <v>0.02269531056371819</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.007048018536819386</v>
+      </c>
+      <c r="E31">
+        <v>0.0693956644643359</v>
+      </c>
+      <c r="F31">
+        <v>-0.06322998360228366</v>
+      </c>
+      <c r="G31">
+        <v>0.04668217278198589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001845870780872959</v>
+        <v>-0.004830520385863881</v>
       </c>
       <c r="C32">
-        <v>-0.0408187425063214</v>
+        <v>0.03332688223964216</v>
       </c>
       <c r="D32">
-        <v>-0.04862090663551108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0563835578563364</v>
+      </c>
+      <c r="E32">
+        <v>0.05408469199020546</v>
+      </c>
+      <c r="F32">
+        <v>-0.06379683344873106</v>
+      </c>
+      <c r="G32">
+        <v>-0.01270831220444475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02535769813248494</v>
+        <v>-0.02262661216395127</v>
       </c>
       <c r="C33">
-        <v>-0.06198689592281301</v>
+        <v>0.05407855807814899</v>
       </c>
       <c r="D33">
-        <v>-0.05132330646962446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07960771965547488</v>
+      </c>
+      <c r="E33">
+        <v>0.0852158083505319</v>
+      </c>
+      <c r="F33">
+        <v>-0.108862943470194</v>
+      </c>
+      <c r="G33">
+        <v>0.02013239683538804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04440751234536242</v>
+        <v>-0.0403687494063728</v>
       </c>
       <c r="C34">
-        <v>-0.06667733375471975</v>
+        <v>0.06469198170606302</v>
       </c>
       <c r="D34">
-        <v>-0.01858337859463925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0382765974481573</v>
+      </c>
+      <c r="E34">
+        <v>0.01159939463911041</v>
+      </c>
+      <c r="F34">
+        <v>-0.07695949251298427</v>
+      </c>
+      <c r="G34">
+        <v>0.01265033668118896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01423764562368356</v>
+        <v>-0.01320475278787188</v>
       </c>
       <c r="C36">
-        <v>-0.01642973622126122</v>
+        <v>0.01271082648043624</v>
       </c>
       <c r="D36">
-        <v>-0.0003478928935535165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02623519950465215</v>
+      </c>
+      <c r="E36">
+        <v>0.05575163470813497</v>
+      </c>
+      <c r="F36">
+        <v>-0.06792649337034605</v>
+      </c>
+      <c r="G36">
+        <v>0.008841183794472893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02811862527794661</v>
+        <v>-0.02227826310819644</v>
       </c>
       <c r="C38">
-        <v>-0.02954916882062236</v>
+        <v>0.02247722653288567</v>
       </c>
       <c r="D38">
-        <v>0.008860225180646351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02258868886928076</v>
+      </c>
+      <c r="E38">
+        <v>0.04638770128070454</v>
+      </c>
+      <c r="F38">
+        <v>-0.05347768732139585</v>
+      </c>
+      <c r="G38">
+        <v>0.002770864211274756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04220643972006318</v>
+        <v>-0.03781398617720674</v>
       </c>
       <c r="C39">
-        <v>-0.06652191619170283</v>
+        <v>0.06438531128594904</v>
       </c>
       <c r="D39">
-        <v>-0.02162303971147148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05257454357336702</v>
+      </c>
+      <c r="E39">
+        <v>0.04187053668977846</v>
+      </c>
+      <c r="F39">
+        <v>-0.08036156381998759</v>
+      </c>
+      <c r="G39">
+        <v>-0.01225036435419949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01189204085713306</v>
+        <v>-0.01274662415108871</v>
       </c>
       <c r="C40">
-        <v>-0.05131896616154251</v>
+        <v>0.03719237687665489</v>
       </c>
       <c r="D40">
-        <v>-0.01699860804778141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03341490009360743</v>
+      </c>
+      <c r="E40">
+        <v>0.08164608161931323</v>
+      </c>
+      <c r="F40">
+        <v>-0.06302068933071388</v>
+      </c>
+      <c r="G40">
+        <v>0.03746806245407531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02058929656620012</v>
+        <v>-0.0186120542114942</v>
       </c>
       <c r="C41">
-        <v>-0.01232892240930601</v>
+        <v>0.01014086525523246</v>
       </c>
       <c r="D41">
-        <v>-0.002174834130417364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01686154736073172</v>
+      </c>
+      <c r="E41">
+        <v>0.05493652646879953</v>
+      </c>
+      <c r="F41">
+        <v>-0.05827773869041773</v>
+      </c>
+      <c r="G41">
+        <v>0.002502329294161094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03701938861115726</v>
+        <v>-0.02843051042399706</v>
       </c>
       <c r="C43">
-        <v>-0.03364090969154411</v>
+        <v>0.02478116985963413</v>
       </c>
       <c r="D43">
-        <v>-0.03007905406499482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04415550077294739</v>
+      </c>
+      <c r="E43">
+        <v>0.06927004602889797</v>
+      </c>
+      <c r="F43">
+        <v>-0.06486993594868472</v>
+      </c>
+      <c r="G43">
+        <v>0.02014318286008034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01051292043415766</v>
+        <v>-0.01246462384509919</v>
       </c>
       <c r="C44">
-        <v>-0.06636839871947804</v>
+        <v>0.04925433927101548</v>
       </c>
       <c r="D44">
-        <v>-0.0114530454839114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03763581716026364</v>
+      </c>
+      <c r="E44">
+        <v>0.08543531936370173</v>
+      </c>
+      <c r="F44">
+        <v>-0.06680147531469949</v>
+      </c>
+      <c r="G44">
+        <v>-0.007683381769220705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006764743539316583</v>
+        <v>-0.007899531933001171</v>
       </c>
       <c r="C46">
-        <v>-0.03000914242791093</v>
+        <v>0.02941732937620927</v>
       </c>
       <c r="D46">
-        <v>0.01557793865772366</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0133806749607</v>
+      </c>
+      <c r="E46">
+        <v>0.05571221510209192</v>
+      </c>
+      <c r="F46">
+        <v>-0.0962672312884056</v>
+      </c>
+      <c r="G46">
+        <v>0.002688319850953132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08098002748916359</v>
+        <v>-0.08648115202758633</v>
       </c>
       <c r="C47">
-        <v>-0.07318219441551103</v>
+        <v>0.0825393824403523</v>
       </c>
       <c r="D47">
-        <v>0.02417919730140777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01428368419513374</v>
+      </c>
+      <c r="E47">
+        <v>0.07191015789345595</v>
+      </c>
+      <c r="F47">
+        <v>-0.0686638341466221</v>
+      </c>
+      <c r="G47">
+        <v>0.05196172025345529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01749730656104956</v>
+        <v>-0.01545440759767901</v>
       </c>
       <c r="C48">
-        <v>-0.0162088376850433</v>
+        <v>0.01691281449721297</v>
       </c>
       <c r="D48">
-        <v>0.01506266808842011</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01461250971123815</v>
+      </c>
+      <c r="E48">
+        <v>0.0663992071295952</v>
+      </c>
+      <c r="F48">
+        <v>-0.08494677571324627</v>
+      </c>
+      <c r="G48">
+        <v>0.008325649805464243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07861732338782984</v>
+        <v>-0.07008108675088949</v>
       </c>
       <c r="C50">
-        <v>-0.08213286218054558</v>
+        <v>0.07596976369898681</v>
       </c>
       <c r="D50">
-        <v>0.02417803628494767</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0009812971451637117</v>
+      </c>
+      <c r="E50">
+        <v>0.07611056235554416</v>
+      </c>
+      <c r="F50">
+        <v>-0.04810650789237261</v>
+      </c>
+      <c r="G50">
+        <v>0.06878714386736927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0138058268750352</v>
+        <v>-0.009742373097921177</v>
       </c>
       <c r="C51">
-        <v>-0.05091488544041107</v>
+        <v>0.03245912960559011</v>
       </c>
       <c r="D51">
-        <v>-0.02868962588885147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04895680137718279</v>
+      </c>
+      <c r="E51">
+        <v>0.04358082416507961</v>
+      </c>
+      <c r="F51">
+        <v>-0.07083858796620583</v>
+      </c>
+      <c r="G51">
+        <v>-0.0199870654499256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0781492324311444</v>
+        <v>-0.09211289414620603</v>
       </c>
       <c r="C53">
-        <v>-0.08019441582823479</v>
+        <v>0.08914394473285189</v>
       </c>
       <c r="D53">
-        <v>0.03954431263129052</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04081872443218873</v>
+      </c>
+      <c r="E53">
+        <v>0.06890051007250537</v>
+      </c>
+      <c r="F53">
+        <v>-0.07790221347832704</v>
+      </c>
+      <c r="G53">
+        <v>0.06453605802545054</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03003383229560289</v>
+        <v>-0.02714708231242953</v>
       </c>
       <c r="C54">
-        <v>-0.03196526555962129</v>
+        <v>0.02902009823515495</v>
       </c>
       <c r="D54">
-        <v>-0.005342303044090841</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03079535259681554</v>
+      </c>
+      <c r="E54">
+        <v>0.05343994192317403</v>
+      </c>
+      <c r="F54">
+        <v>-0.09269270693633112</v>
+      </c>
+      <c r="G54">
+        <v>0.01063035421705199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07284108100102071</v>
+        <v>-0.08413042761288066</v>
       </c>
       <c r="C55">
-        <v>-0.06149834010181567</v>
+        <v>0.07248757881155861</v>
       </c>
       <c r="D55">
-        <v>0.04839787060673022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04722036848683579</v>
+      </c>
+      <c r="E55">
+        <v>0.05071241624415959</v>
+      </c>
+      <c r="F55">
+        <v>-0.05392329203290683</v>
+      </c>
+      <c r="G55">
+        <v>0.05334443245724564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1420829725347239</v>
+        <v>-0.1458008583757846</v>
       </c>
       <c r="C56">
-        <v>-0.1006081449700061</v>
+        <v>0.1104672476778599</v>
       </c>
       <c r="D56">
-        <v>0.0373523874457906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04316091675255472</v>
+      </c>
+      <c r="E56">
+        <v>0.05260991927029659</v>
+      </c>
+      <c r="F56">
+        <v>-0.03871527051506544</v>
+      </c>
+      <c r="G56">
+        <v>0.0595528013851935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001825317933248328</v>
+        <v>0.00118127388059084</v>
       </c>
       <c r="C57">
-        <v>0.01121578053117954</v>
+        <v>-0.006598418421290649</v>
       </c>
       <c r="D57">
-        <v>-0.002479961636962266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.001720706697819136</v>
+      </c>
+      <c r="E57">
+        <v>0.001832718753622975</v>
+      </c>
+      <c r="F57">
+        <v>-0.005865809517457805</v>
+      </c>
+      <c r="G57">
+        <v>0.003217137121304923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04191083039877964</v>
+        <v>-0.02496477823288777</v>
       </c>
       <c r="C58">
-        <v>-0.018337717169646</v>
+        <v>0.01931555569088548</v>
       </c>
       <c r="D58">
-        <v>-0.6371795478108124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3872020025670525</v>
+      </c>
+      <c r="E58">
+        <v>0.6365285081659117</v>
+      </c>
+      <c r="F58">
+        <v>0.5835958102008448</v>
+      </c>
+      <c r="G58">
+        <v>-0.104383159797939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1373333193635809</v>
+        <v>-0.1467639479575549</v>
       </c>
       <c r="C59">
-        <v>0.1942827723621724</v>
+        <v>-0.185111515003031</v>
       </c>
       <c r="D59">
-        <v>-0.01641877448146559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02420549264476512</v>
+      </c>
+      <c r="E59">
+        <v>0.02596566568353478</v>
+      </c>
+      <c r="F59">
+        <v>-0.01919255599142215</v>
+      </c>
+      <c r="G59">
+        <v>-0.03122006118406998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3073531581942733</v>
+        <v>-0.2805718300727701</v>
       </c>
       <c r="C60">
-        <v>-0.1056163586214415</v>
+        <v>0.1030521394749363</v>
       </c>
       <c r="D60">
-        <v>-0.1717919261052438</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2469239301113529</v>
+      </c>
+      <c r="E60">
+        <v>-0.2588461827684112</v>
+      </c>
+      <c r="F60">
+        <v>0.07540591834218298</v>
+      </c>
+      <c r="G60">
+        <v>0.04558402521117078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04032175376303157</v>
+        <v>-0.03916122672385808</v>
       </c>
       <c r="C61">
-        <v>-0.063994135150809</v>
+        <v>0.06036138866248601</v>
       </c>
       <c r="D61">
-        <v>-0.01735627169594078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04450821911236387</v>
+      </c>
+      <c r="E61">
+        <v>0.04622136794254155</v>
+      </c>
+      <c r="F61">
+        <v>-0.07096285473852043</v>
+      </c>
+      <c r="G61">
+        <v>0.01263696948399422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01460713174464361</v>
+        <v>-0.0141007956556969</v>
       </c>
       <c r="C63">
-        <v>-0.03427528995938362</v>
+        <v>0.03183838258874436</v>
       </c>
       <c r="D63">
-        <v>0.009427434086764623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02004864441492009</v>
+      </c>
+      <c r="E63">
+        <v>0.05757894482334382</v>
+      </c>
+      <c r="F63">
+        <v>-0.06321982699079369</v>
+      </c>
+      <c r="G63">
+        <v>0.02797454410815899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04727936885956123</v>
+        <v>-0.0550137159616678</v>
       </c>
       <c r="C64">
-        <v>-0.04813188830386463</v>
+        <v>0.05711912441837633</v>
       </c>
       <c r="D64">
-        <v>-0.007566344275442918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01042403251025032</v>
+      </c>
+      <c r="E64">
+        <v>0.0401940586301724</v>
+      </c>
+      <c r="F64">
+        <v>-0.0825368944499001</v>
+      </c>
+      <c r="G64">
+        <v>0.0122959774299193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08423418639647356</v>
+        <v>-0.06773245055272691</v>
       </c>
       <c r="C65">
-        <v>-0.03278838945142075</v>
+        <v>0.03076143826916544</v>
       </c>
       <c r="D65">
-        <v>-0.05044793538424049</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08215269860870847</v>
+      </c>
+      <c r="E65">
+        <v>0.04434186180466235</v>
+      </c>
+      <c r="F65">
+        <v>0.0004617552755109273</v>
+      </c>
+      <c r="G65">
+        <v>0.001301503658775886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0580776314166921</v>
+        <v>-0.04937754717398751</v>
       </c>
       <c r="C66">
-        <v>-0.09290983638336295</v>
+        <v>0.0837230473882363</v>
       </c>
       <c r="D66">
-        <v>-0.04367229477851532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07755084055317919</v>
+      </c>
+      <c r="E66">
+        <v>0.04915135239453463</v>
+      </c>
+      <c r="F66">
+        <v>-0.08252165040826999</v>
+      </c>
+      <c r="G66">
+        <v>0.004235820802846828</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05037597098901763</v>
+        <v>-0.04430289069464848</v>
       </c>
       <c r="C67">
-        <v>-0.03183107208727511</v>
+        <v>0.02788953273388213</v>
       </c>
       <c r="D67">
-        <v>0.01174120869936556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008686476504747152</v>
+      </c>
+      <c r="E67">
+        <v>0.02477860158390373</v>
+      </c>
+      <c r="F67">
+        <v>-0.04499208271881475</v>
+      </c>
+      <c r="G67">
+        <v>0.009807155868440231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.136691491768044</v>
+        <v>-0.1558166374158662</v>
       </c>
       <c r="C68">
-        <v>0.2781826581976432</v>
+        <v>-0.2442966246657385</v>
       </c>
       <c r="D68">
-        <v>0.01904450155408147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02130699262738568</v>
+      </c>
+      <c r="E68">
+        <v>0.04157855134029573</v>
+      </c>
+      <c r="F68">
+        <v>-0.0121894385644884</v>
+      </c>
+      <c r="G68">
+        <v>0.00977947468780524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08790098249683503</v>
+        <v>-0.08588386113081532</v>
       </c>
       <c r="C69">
-        <v>-0.07222112252693558</v>
+        <v>0.08964963184339445</v>
       </c>
       <c r="D69">
-        <v>0.03287648666111773</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004880301508970744</v>
+      </c>
+      <c r="E69">
+        <v>0.05645151612382708</v>
+      </c>
+      <c r="F69">
+        <v>-0.08706544833187703</v>
+      </c>
+      <c r="G69">
+        <v>0.03064161003304305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1235881461296407</v>
+        <v>-0.1463443437724218</v>
       </c>
       <c r="C71">
-        <v>0.246655481302273</v>
+        <v>-0.2345192663660419</v>
       </c>
       <c r="D71">
-        <v>-0.01433117796572312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003771286913566832</v>
+      </c>
+      <c r="E71">
+        <v>0.06637617280920985</v>
+      </c>
+      <c r="F71">
+        <v>-0.04774925425602247</v>
+      </c>
+      <c r="G71">
+        <v>0.03874502046923895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0889083113631967</v>
+        <v>-0.09802582910018406</v>
       </c>
       <c r="C72">
-        <v>-0.05844836520295221</v>
+        <v>0.05888722189409315</v>
       </c>
       <c r="D72">
-        <v>-0.0121915603328971</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03337191098627323</v>
+      </c>
+      <c r="E72">
+        <v>0.0256839201803846</v>
+      </c>
+      <c r="F72">
+        <v>-0.06597312097897405</v>
+      </c>
+      <c r="G72">
+        <v>0.03505226373950033</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4034536624019971</v>
+        <v>-0.3435162799206064</v>
       </c>
       <c r="C73">
-        <v>-0.05562437421301857</v>
+        <v>0.07058695624666178</v>
       </c>
       <c r="D73">
-        <v>-0.3990661386232344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4907128153574084</v>
+      </c>
+      <c r="E73">
+        <v>-0.4644922847499628</v>
+      </c>
+      <c r="F73">
+        <v>0.2184178367980059</v>
+      </c>
+      <c r="G73">
+        <v>0.1050831110661557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1025303886264677</v>
+        <v>-0.1081385443441625</v>
       </c>
       <c r="C74">
-        <v>-0.09747624766222832</v>
+        <v>0.09775211360989951</v>
       </c>
       <c r="D74">
-        <v>0.02037767633498568</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03086893476695318</v>
+      </c>
+      <c r="E74">
+        <v>0.06829328778089627</v>
+      </c>
+      <c r="F74">
+        <v>-0.03726325675610074</v>
+      </c>
+      <c r="G74">
+        <v>0.07249335758149132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2508895404789451</v>
+        <v>-0.2556595566806628</v>
       </c>
       <c r="C75">
-        <v>-0.1117150069927657</v>
+        <v>0.1356602523989308</v>
       </c>
       <c r="D75">
-        <v>0.09008489735219492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.125818858280021</v>
+      </c>
+      <c r="E75">
+        <v>0.06301736204002262</v>
+      </c>
+      <c r="F75">
+        <v>-0.01662969765717697</v>
+      </c>
+      <c r="G75">
+        <v>0.07808050325765624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1097422692678946</v>
+        <v>-0.1246184916591188</v>
       </c>
       <c r="C76">
-        <v>-0.09081208711671646</v>
+        <v>0.09975326759633245</v>
       </c>
       <c r="D76">
-        <v>0.05152034994867773</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06066389228623749</v>
+      </c>
+      <c r="E76">
+        <v>0.07899286627524445</v>
+      </c>
+      <c r="F76">
+        <v>-0.05920157992871531</v>
+      </c>
+      <c r="G76">
+        <v>0.05815105123785069</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07453819020202397</v>
+        <v>-0.05907274061662943</v>
       </c>
       <c r="C77">
-        <v>-0.05872206642341333</v>
+        <v>0.06983978704011563</v>
       </c>
       <c r="D77">
-        <v>-0.05162158272399959</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0623100993650378</v>
+      </c>
+      <c r="E77">
+        <v>0.09568007730798603</v>
+      </c>
+      <c r="F77">
+        <v>-0.1085606952107082</v>
+      </c>
+      <c r="G77">
+        <v>-0.1433692245454919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04574719020112106</v>
+        <v>-0.04224847365430776</v>
       </c>
       <c r="C78">
-        <v>-0.05181993567359724</v>
+        <v>0.05762739577726831</v>
       </c>
       <c r="D78">
-        <v>-0.02760351501580845</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06322468044642039</v>
+      </c>
+      <c r="E78">
+        <v>0.05337007126627832</v>
+      </c>
+      <c r="F78">
+        <v>-0.08289630481308327</v>
+      </c>
+      <c r="G78">
+        <v>0.008421682945788066</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02775750243573679</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04512094566833159</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06063494971523375</v>
+      </c>
+      <c r="E79">
+        <v>0.06644812087398977</v>
+      </c>
+      <c r="F79">
+        <v>-0.02984240567430173</v>
+      </c>
+      <c r="G79">
+        <v>0.08010261278423213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03993757520881626</v>
+        <v>-0.03105523027557801</v>
       </c>
       <c r="C80">
-        <v>-0.05049151913428656</v>
+        <v>0.05063536937215241</v>
       </c>
       <c r="D80">
-        <v>-0.02572941532060215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03862330635102727</v>
+      </c>
+      <c r="E80">
+        <v>0.01658610160042133</v>
+      </c>
+      <c r="F80">
+        <v>-0.03242044028140711</v>
+      </c>
+      <c r="G80">
+        <v>-0.04510945402956454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1390698847397038</v>
+        <v>-0.1387700199735056</v>
       </c>
       <c r="C81">
-        <v>-0.08214125952535341</v>
+        <v>0.09736181674425069</v>
       </c>
       <c r="D81">
-        <v>0.0771362258517468</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.104454766470497</v>
+      </c>
+      <c r="E81">
+        <v>0.08059864824473785</v>
+      </c>
+      <c r="F81">
+        <v>-0.005179762414051848</v>
+      </c>
+      <c r="G81">
+        <v>0.05310119353235803</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1651342149775507</v>
+        <v>-0.2053598165353712</v>
       </c>
       <c r="C82">
-        <v>-0.09336723870889223</v>
+        <v>0.1560944345597642</v>
       </c>
       <c r="D82">
-        <v>0.1452634893776207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2157006306250433</v>
+      </c>
+      <c r="E82">
+        <v>0.007364805454266765</v>
+      </c>
+      <c r="F82">
+        <v>-0.1086025277329882</v>
+      </c>
+      <c r="G82">
+        <v>0.05426509663262592</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03754605844080128</v>
+        <v>-0.02607106929884155</v>
       </c>
       <c r="C83">
-        <v>-0.02947357749431457</v>
+        <v>0.04219644272287984</v>
       </c>
       <c r="D83">
-        <v>-0.03441743049487869</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03240225568616455</v>
+      </c>
+      <c r="E83">
+        <v>0.02368138370396433</v>
+      </c>
+      <c r="F83">
+        <v>-0.04169327138424329</v>
+      </c>
+      <c r="G83">
+        <v>-0.02097701757826152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.000218821579217131</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008240732494760072</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001205786982957622</v>
+      </c>
+      <c r="E84">
+        <v>0.0006714535411388289</v>
+      </c>
+      <c r="F84">
+        <v>-0.0009070220592136611</v>
+      </c>
+      <c r="G84">
+        <v>-0.0003083470458845186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2163522689008799</v>
+        <v>-0.2009275062542521</v>
       </c>
       <c r="C85">
-        <v>-0.107791903488567</v>
+        <v>0.1192423987045677</v>
       </c>
       <c r="D85">
-        <v>0.1182463770679684</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09787785923984699</v>
+      </c>
+      <c r="E85">
+        <v>-0.005821091794462638</v>
+      </c>
+      <c r="F85">
+        <v>0.01131853762665117</v>
+      </c>
+      <c r="G85">
+        <v>0.1365903380664248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006494752690834876</v>
+        <v>-0.008645925050719797</v>
       </c>
       <c r="C86">
-        <v>-0.03063664188469915</v>
+        <v>0.02167835756148299</v>
       </c>
       <c r="D86">
-        <v>-0.03277578448520656</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05384216352880052</v>
+      </c>
+      <c r="E86">
+        <v>0.06900467537348372</v>
+      </c>
+      <c r="F86">
+        <v>-0.122950611074419</v>
+      </c>
+      <c r="G86">
+        <v>-0.008506733919053062</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02254893158017428</v>
+        <v>-0.02156113373378719</v>
       </c>
       <c r="C87">
-        <v>-0.006332365191110353</v>
+        <v>0.01475631085192816</v>
       </c>
       <c r="D87">
-        <v>-0.08330854393854448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08388746500027101</v>
+      </c>
+      <c r="E87">
+        <v>0.1199811087598389</v>
+      </c>
+      <c r="F87">
+        <v>-0.0608121792538992</v>
+      </c>
+      <c r="G87">
+        <v>-0.04394671345982937</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1037168300934383</v>
+        <v>-0.09136273560959728</v>
       </c>
       <c r="C88">
-        <v>-0.07385833210833424</v>
+        <v>0.06356574940890668</v>
       </c>
       <c r="D88">
-        <v>0.02272357455104098</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005407675218250987</v>
+      </c>
+      <c r="E88">
+        <v>0.04785530523197226</v>
+      </c>
+      <c r="F88">
+        <v>-0.06682157968808689</v>
+      </c>
+      <c r="G88">
+        <v>-0.02262214151293648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1972278074091451</v>
+        <v>-0.2263553775226702</v>
       </c>
       <c r="C89">
-        <v>0.372638012579837</v>
+        <v>-0.3777995544691359</v>
       </c>
       <c r="D89">
-        <v>0.03254362998666035</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02308894277231585</v>
+      </c>
+      <c r="E89">
+        <v>0.06543362981311018</v>
+      </c>
+      <c r="F89">
+        <v>-0.07466427337258387</v>
+      </c>
+      <c r="G89">
+        <v>-0.06350013249957699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1860065146606091</v>
+        <v>-0.2043181636610485</v>
       </c>
       <c r="C90">
-        <v>0.3304818882268883</v>
+        <v>-0.3093829097959769</v>
       </c>
       <c r="D90">
-        <v>0.03477153975650654</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02443285567601899</v>
+      </c>
+      <c r="E90">
+        <v>0.07173618436333536</v>
+      </c>
+      <c r="F90">
+        <v>-0.03501674040144868</v>
+      </c>
+      <c r="G90">
+        <v>-0.0148449096639847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1865060712162755</v>
+        <v>-0.1842727153426756</v>
       </c>
       <c r="C91">
-        <v>-0.1316151038143354</v>
+        <v>0.1462682916818297</v>
       </c>
       <c r="D91">
-        <v>0.08733040762866273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1043793138500829</v>
+      </c>
+      <c r="E91">
+        <v>0.06243305002407198</v>
+      </c>
+      <c r="F91">
+        <v>-0.03086483681910626</v>
+      </c>
+      <c r="G91">
+        <v>0.06034674517843546</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1695529595399963</v>
+        <v>-0.1845468023551573</v>
       </c>
       <c r="C92">
-        <v>0.2772068968926429</v>
+        <v>-0.2836120455112056</v>
       </c>
       <c r="D92">
-        <v>0.01529471248756355</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02036461938676403</v>
+      </c>
+      <c r="E92">
+        <v>0.07311659013103518</v>
+      </c>
+      <c r="F92">
+        <v>-0.08100822635865999</v>
+      </c>
+      <c r="G92">
+        <v>-0.008408702840776886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2095624566563832</v>
+        <v>-0.2272505516489217</v>
       </c>
       <c r="C93">
-        <v>0.3311436345937286</v>
+        <v>-0.3150450745069115</v>
       </c>
       <c r="D93">
-        <v>0.03251308210047595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01759248861440281</v>
+      </c>
+      <c r="E93">
+        <v>0.04564203936956448</v>
+      </c>
+      <c r="F93">
+        <v>-0.03426669971697356</v>
+      </c>
+      <c r="G93">
+        <v>0.02903569302179256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3440135995897849</v>
+        <v>-0.3456407046469807</v>
       </c>
       <c r="C94">
-        <v>-0.1735820195734689</v>
+        <v>0.2007205553837118</v>
       </c>
       <c r="D94">
-        <v>0.4838888885266521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5002374574529942</v>
+      </c>
+      <c r="E94">
+        <v>-0.01230937557003733</v>
+      </c>
+      <c r="F94">
+        <v>0.4464230564131948</v>
+      </c>
+      <c r="G94">
+        <v>-0.3461546377621502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1097611928785695</v>
+        <v>-0.08197181247300986</v>
       </c>
       <c r="C95">
-        <v>-0.07457429601037292</v>
+        <v>0.0639557793136651</v>
       </c>
       <c r="D95">
-        <v>-0.139282186883606</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.170467767885831</v>
+      </c>
+      <c r="E95">
+        <v>-0.1023939104318386</v>
+      </c>
+      <c r="F95">
+        <v>-0.2618411954065343</v>
+      </c>
+      <c r="G95">
+        <v>-0.8515595184129433</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1923016985127217</v>
+        <v>-0.1858431041034434</v>
       </c>
       <c r="C98">
-        <v>-0.01971538190954515</v>
+        <v>0.04126950504245871</v>
       </c>
       <c r="D98">
-        <v>-0.151051243407204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1972677331429337</v>
+      </c>
+      <c r="E98">
+        <v>-0.1420281646269241</v>
+      </c>
+      <c r="F98">
+        <v>0.02955865844863595</v>
+      </c>
+      <c r="G98">
+        <v>0.09496527232846862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006729927092744273</v>
+        <v>-0.005384398819880019</v>
       </c>
       <c r="C101">
-        <v>-0.03301078517994323</v>
+        <v>0.02921903662129501</v>
       </c>
       <c r="D101">
-        <v>0.01465690422585843</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01815908297087468</v>
+      </c>
+      <c r="E101">
+        <v>0.04673082272172024</v>
+      </c>
+      <c r="F101">
+        <v>-0.0817075320823574</v>
+      </c>
+      <c r="G101">
+        <v>0.00815752997810539</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1209750224493363</v>
+        <v>-0.1236761248877297</v>
       </c>
       <c r="C102">
-        <v>-0.07640266257989752</v>
+        <v>0.1029444507233912</v>
       </c>
       <c r="D102">
-        <v>0.024525936402244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04014774445921403</v>
+      </c>
+      <c r="E102">
+        <v>-0.00149785524772433</v>
+      </c>
+      <c r="F102">
+        <v>-0.04708610319784797</v>
+      </c>
+      <c r="G102">
+        <v>0.01896346235812256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
